--- a/fgt-tables/fgt_localizacao_domicio_sm.xlsx
+++ b/fgt-tables/fgt_localizacao_domicio_sm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.06673239001054511</v>
+        <v>0.05873514465104036</v>
       </c>
       <c r="C2">
-        <v>0.00105207073190333</v>
+        <v>0.0009034841054524714</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1960047660122104</v>
+        <v>0.1637156252749384</v>
       </c>
       <c r="C3">
-        <v>0.002499050865355251</v>
+        <v>0.002126261199068803</v>
       </c>
     </row>
   </sheetData>
